--- a/data/income_statement/2digits/size/37_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/37_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>37-Sewerage</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>37-Sewerage</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,92 +841,107 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>35021.60006</v>
+        <v>39655.55487</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>31174.33852</v>
+        <v>41829.99988</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>45535.98877</v>
+        <v>52671.12162</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>60577.766</v>
+        <v>66187.67638</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>96157.40297</v>
+        <v>121504.63991</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>103501.05317</v>
+        <v>119811.84628</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>72123.47646999999</v>
+        <v>97802.31879999999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>103094.31889</v>
+        <v>120347.63744</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>202078.96674</v>
+        <v>220468.72362</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>304408.22942</v>
+        <v>310888.35929</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>291582.82521</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>317472.93112</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>265611.031</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>31199.79842</v>
+        <v>35730.75382</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>25008.03547</v>
+        <v>35632.87103</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>41701.74018</v>
+        <v>47971.08603</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>51834.713</v>
+        <v>57457.42807</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>81522.75072</v>
+        <v>105020.37062</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>89328.14754999999</v>
+        <v>103406.6834</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>67976.75494</v>
+        <v>89034.96795000001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>100331.2797</v>
+        <v>114921.08436</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>189834.45673</v>
+        <v>206532.08396</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>255101.35195</v>
+        <v>262252.35805</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>237799.1676</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>262300.4571</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>221218.648</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>3084.2034</v>
@@ -1034,121 +950,136 @@
         <v>4510.43363</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1810.36861</v>
+        <v>2683.22417</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6790.84608</v>
+        <v>6737.32968</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>13153.3913</v>
+        <v>13422.58488</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11193.20813</v>
+        <v>12937.27461</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3979.71953</v>
+        <v>7434.13298</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2178.13696</v>
+        <v>4707.72452</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>11038.31654</v>
+        <v>12393.66242</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>41340.90184000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>51570.20673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>51257.80618</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>40470.618</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>737.59824</v>
+        <v>840.59765</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1655.86942</v>
+        <v>1686.69522</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2023.87998</v>
+        <v>2016.81142</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1952.20692</v>
+        <v>1992.91863</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1481.26095</v>
+        <v>3061.68441</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2979.69749</v>
+        <v>3467.88827</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>167.002</v>
+        <v>1333.21787</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>584.90223</v>
+        <v>718.82856</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1206.19347</v>
+        <v>1542.97724</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>7965.97563</v>
+        <v>7295.0994</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2213.45088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>3914.66784</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3921.765</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>404.71437</v>
+        <v>409.20677</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>73.78094999999999</v>
+        <v>1123.69302</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1464.7809</v>
+        <v>1517.48443</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>124.82863</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>104.22326</v>
+        <v>1262.14603</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>224.24318</v>
+        <v>281.82491</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>218.96396</v>
+        <v>252.98439</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>171.28169</v>
+        <v>541.65595</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>245.68347</v>
+        <v>245.47516</v>
       </c>
       <c r="L9" s="47" t="n">
         <v>1493.64729</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4373.4748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4451.9883</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1349.84</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>112.84698</v>
+        <v>117.33938</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>73.78094999999999</v>
+        <v>1123.69302</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>1463.9849</v>
@@ -1157,31 +1088,36 @@
         <v>118.0383</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>98.81346000000001</v>
+        <v>91.87233999999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>50.96755</v>
+        <v>58.89255</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>197.46061</v>
+        <v>194.70561</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>144.32417</v>
+        <v>514.69843</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>222.76324</v>
+        <v>221.96324</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>741.03896</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2822.76319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2865.01419</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>843.491</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>5.26318</v>
@@ -1190,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>0</v>
+        <v>52.70353</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>2.02257</v>
@@ -1199,10 +1135,10 @@
         <v>0.99736</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>173.27563</v>
+        <v>222.93236</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>19.87655</v>
+        <v>35.2141</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>26.95752</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>5.91401</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>30.057</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>286.60421</v>
@@ -1235,109 +1176,124 @@
         <v>4.76776</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>4.412439999999999</v>
+        <v>1169.27633</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1.6268</v>
+        <v>23.06468</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>0</v>
+        <v>0.59169</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>730.87256</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1544.7976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1581.0601</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>476.292</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>34616.88569</v>
+        <v>39246.3481</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>31100.55757</v>
+        <v>40706.30686</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>44071.20787</v>
+        <v>51153.63718999999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>60452.93737</v>
+        <v>66062.84775</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>96053.17971</v>
+        <v>120242.49388</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>103276.80999</v>
+        <v>119530.02137</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>71904.51251</v>
+        <v>97549.33441</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>102923.0372</v>
+        <v>119805.98149</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>201833.28327</v>
+        <v>220223.24846</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>302914.58213</v>
+        <v>309394.712</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>287209.35041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>313020.94282</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>264261.191</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>26896.37802</v>
+        <v>28752.61226</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>25717.65636</v>
+        <v>33497.57549</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>37670.53526</v>
+        <v>42381.52411</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>49181.07557</v>
+        <v>52589.5185</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>79832.20359</v>
+        <v>96200.80148000001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>87959.26454999999</v>
+        <v>99052.4369</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>57014.57628</v>
+        <v>75611.12576000001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>85563.48899</v>
+        <v>94301.13610999999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>182964.8131</v>
+        <v>201805.84073</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>262784.70688</v>
+        <v>262037.79793</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>215540.00949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>230141.96595</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>209916.134</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1099.36238</v>
@@ -1349,112 +1305,127 @@
         <v>3580.46287</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>7134.69204</v>
+        <v>6906.3143</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>4217.8328</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>11232.90765</v>
+        <v>11136.3988</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5451.09588</v>
+        <v>5987.29951</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9658.38076</v>
+        <v>9386.414449999998</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>34951.87309</v>
+        <v>35834.11087</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>36067.17353</v>
+        <v>35669.68718</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>9027.00691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6997.31545</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>27846.101</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>3953.00896</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1815.60823</v>
+        <v>1784.50709</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3817.79956</v>
+        <v>3809.32498</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3334.38281</v>
+        <v>3213.04996</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>13304.62456</v>
+        <v>17871.60241</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>11335.22822</v>
+        <v>11782.01314</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>11290.47502</v>
+        <v>11731.29416</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>17828.01076</v>
+        <v>19195.28043</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>25784.35084</v>
+        <v>31052.73569</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>15092.2752</v>
+        <v>15385.05755</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>16615.15854</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17764.29713</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5705.724</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>21844.00668</v>
+        <v>23700.24092</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>19038.75962</v>
+        <v>26849.77989</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>30272.27283</v>
+        <v>34991.73626</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>38699.46691</v>
+        <v>42441.35441</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>62136.00311</v>
+        <v>73943.57315000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>64684.36362</v>
+        <v>75445.56494</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>40159.88199</v>
+        <v>57702.26463000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>57635.84997</v>
+        <v>65278.19373</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>120271.6635</v>
+        <v>132962.0685</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>208714.02472</v>
+        <v>208929.37975</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>189225.33505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>204724.28438</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>172077.394</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1466,16 +1437,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>12.53381</v>
+        <v>28.79983</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>173.74312</v>
+        <v>167.79312</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>706.7650600000001</v>
+        <v>688.46002</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>113.12339</v>
+        <v>190.26746</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>441.2475</v>
@@ -1484,94 +1455,109 @@
         <v>1956.92567</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2911.23343</v>
+        <v>2053.67345</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>672.50899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>656.06899</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4286.915</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>7720.50767</v>
+        <v>10493.73584</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>5382.90121</v>
+        <v>7208.73137</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6400.672610000001</v>
+        <v>8772.113079999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>11271.8618</v>
+        <v>13473.32925</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>16220.97612</v>
+        <v>24041.6924</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>15317.54544</v>
+        <v>20477.58447</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>14889.93623</v>
+        <v>21938.20865</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>17359.54821</v>
+        <v>25504.84538</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>18868.47017</v>
+        <v>18417.40773</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>40129.87525</v>
+        <v>47356.91407</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>71669.34092</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>82878.97687</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>54345.057</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>4058.69607</v>
+        <v>4628.35945</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>3668.79411</v>
+        <v>5382.38389</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4901.14511</v>
+        <v>6336.67163</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>8777.095650000001</v>
+        <v>9108.757039999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>10730.42889</v>
+        <v>15295.62114</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>10598.30931</v>
+        <v>12982.55251</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>11010.73434</v>
+        <v>13330.16911</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>14361.92138</v>
+        <v>20016.35689</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>18850.90882</v>
+        <v>22154.41619</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>31329.81013</v>
+        <v>35322.48968</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>32080.52491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>40922.29622</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>39132.184</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>151.68468</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>151.685</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>89.48022</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>265.84833</v>
+        <v>263.13471</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>602.0611600000001</v>
+        <v>661.7492</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>550.6300500000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>710.4568399999999</v>
+        <v>2456.46309</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1325.83897</v>
+        <v>2531.49999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2078.68368</v>
+        <v>2975.97391</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3011.76587</v>
+        <v>3006.36327</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4636.054160000001</v>
+        <v>4728.28246</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>6446.27851</v>
+        <v>6460.612</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5094.0081</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5299.146110000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3735.754</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3969.21585</v>
+        <v>4538.87923</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3402.94578</v>
+        <v>5119.24918</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4299.08395</v>
+        <v>5674.92243</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>8226.4656</v>
+        <v>8558.126990000001</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>10019.97205</v>
+        <v>12839.15805</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>8748.837449999999</v>
+        <v>9927.41963</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>8812.672929999999</v>
+        <v>10234.81747</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>11331.82887</v>
+        <v>16991.66698</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>14063.16998</v>
+        <v>17274.44905</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>24731.84694</v>
+        <v>28710.193</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>26834.83213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>35471.46543</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>35244.745</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3661.8116</v>
+        <v>5865.376389999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1714.1071</v>
+        <v>1826.34748</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1499.5275</v>
+        <v>2435.44145</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2494.76615</v>
+        <v>4364.57221</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>5490.54723</v>
+        <v>8746.071260000001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4719.23613</v>
+        <v>7495.03196</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3879.20189</v>
+        <v>8608.03954</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2997.62683</v>
+        <v>5488.488490000001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>17.56135</v>
+        <v>-3737.00846</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>8800.065119999999</v>
+        <v>12034.42439</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>39588.81601</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>41956.68065</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>15212.873</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>635.73384</v>
+        <v>586.1311800000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>401.83934</v>
+        <v>2837.01801</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>755.61457</v>
+        <v>792.1875699999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1051.68855</v>
+        <v>1043.31295</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2539.4426</v>
+        <v>4161.19565</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>797.19287</v>
+        <v>3215.57811</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>591.58597</v>
+        <v>5182.907349999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1044.94901</v>
+        <v>3029.84485</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3208.55108</v>
+        <v>6163.4773</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>17371.07304</v>
+        <v>24655.15657</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>21497.9352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>32688.7188</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>28337.656</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>149.36543</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>377.8339099999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>152.497</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>149.71107</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>120.04358</v>
+        <v>120.05446</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>69.94205000000001</v>
+        <v>157.71038</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>36.85642</v>
+        <v>32.85947</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>77.99685000000001</v>
+        <v>65.32938</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>450.05444</v>
+        <v>563.8526800000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>211.76474</v>
+        <v>560.8306899999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>97.20139</v>
+        <v>672.9599599999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>103.19937</v>
+        <v>122.57986</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>117.50141</v>
+        <v>812.3209899999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1908.50343</v>
+        <v>919.41635</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1565.55162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>499.84455</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>387.864</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1952,94 +1983,109 @@
         <v>1</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>127.62429</v>
+        <v>258.16581</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>1818.04526</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1505.832</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>22.74453</v>
+        <v>14.754</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0.8274199999999999</v>
+        <v>2.4826</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>7.44747</v>
+        <v>10.92344</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>13.436</v>
+        <v>16.44716</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>385.19975</v>
+        <v>14.61561</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4.73938</v>
+        <v>12.02381</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>16.15265</v>
+        <v>16.15291</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>8.47597</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>27.57818</v>
+        <v>27.59246</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>18.13666</v>
+        <v>12.84137</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>29.19102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>28.63748</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>28.872</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>175.24758</v>
+        <v>179.72868</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>243.52169</v>
+        <v>2585.95024</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>677.09601</v>
+        <v>713.90317</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>560.6094300000001</v>
+        <v>559.00987</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1366.1672</v>
+        <v>3234.01308</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>488.41639</v>
+        <v>2547.12658</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>300.07756</v>
+        <v>4340.900549999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>874.85952</v>
+        <v>2810.38685</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>2727.38452</v>
+        <v>5000.73292</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>14847.62974</v>
+        <v>23232.93789</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>17146.33891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>29341.23395</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>26025.877</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>18.62165</v>
+        <v>-27.48246</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>87.24817999999999</v>
+        <v>90.57478999999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>34.21467</v>
+        <v>34.50149</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>382.76214</v>
+        <v>385.64241</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>315.70301</v>
+        <v>326.39608</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>92.27236000000001</v>
+        <v>95.59703</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>105.84653</v>
+        <v>80.58609</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>46.02636</v>
+        <v>76.01438</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>335.08697</v>
+        <v>321.83093</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>468.93411</v>
+        <v>231.55034</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>560.97448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>623.12365</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>236.714</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>360.34622</v>
+        <v>366.69869</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>320.79909</v>
+        <v>2489.97447</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>751.67183</v>
+        <v>969.34604</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1083.91081</v>
+        <v>1078.82613</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2917.32852</v>
+        <v>3518.91657</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>722.9151400000001</v>
+        <v>5394.10745</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>607.6772900000001</v>
+        <v>5173.57995</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>799.34572</v>
+        <v>2092.77485</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2260.39529</v>
+        <v>2645.53348</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>23581.14028</v>
+        <v>43391.6675</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>33207.63756</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>47361.63165</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>33974.624</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0</v>
@@ -2222,19 +2288,24 @@
         <v>1.43163</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5.51552</v>
+        <v>10.5658</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>15.70642</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>121.8018</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>112.3018</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>54.133</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>0</v>
@@ -2252,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>84.86063</v>
+        <v>2432.66147</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>47.04333</v>
+        <v>242.59941</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>39.3752</v>
@@ -2264,16 +2335,21 @@
         <v>212.22324</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1233.10023</v>
+        <v>1363.64175</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4470.34648</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4483.470139999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>10404.16</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2297,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>15.22732</v>
+        <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>179.3511</v>
+        <v>180.46732</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>148.57328</v>
+        <v>2317.74866</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>728.53239</v>
+        <v>763.6308</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>600.59245</v>
+        <v>595.87285</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2894.71514</v>
+        <v>3495.83661</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>463.01386</v>
+        <v>2786.3042</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>297.01768</v>
+        <v>4684.94929</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>742.74421</v>
+        <v>2051.43591</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1921.89244</v>
+        <v>2301.98035</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>22249.12273</v>
+        <v>41929.10843</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>28063.73595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>42177.15745000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>22993.555</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,35 +2516,40 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>180.99512</v>
+        <v>186.23137</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>94.34844</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>23.13944</v>
+        <v>205.71524</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>402.36938</v>
+        <v>402.0043</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>9.230600000000001</v>
+        <v>9.697179999999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>94.95049</v>
+        <v>95.05162</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>258.94727</v>
+        <v>241.36224</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>0.56736</v>
+        <v>0.53211</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>120.10307</v>
@@ -2462,91 +2558,106 @@
         <v>83.2109</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>551.75333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>588.70226</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>522.776</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>608.33214</v>
+        <v>607.4106400000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>426.24194</v>
+        <v>1435.96387</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>371.85631</v>
+        <v>757.1819</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1167.69209</v>
+        <v>1167.37709</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1204.02547</v>
+        <v>2112.03064</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>737.43327</v>
+        <v>1210.36277</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>932.3364799999999</v>
+        <v>1473.00705</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1102.6841</v>
+        <v>1095.75567</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1725.52518</v>
+        <v>2091.59572</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5389.2868</v>
+        <v>6231.58999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7429.88669</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>8669.2788</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7003.389</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>608.33214</v>
+        <v>607.4106400000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>426.24194</v>
+        <v>1435.96387</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>371.85631</v>
+        <v>757.1819</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>781.92679</v>
+        <v>781.61179</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1204.02547</v>
+        <v>2110.81065</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>737.43327</v>
+        <v>1210.36277</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>929.77622</v>
+        <v>1470.44679</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1093.56985</v>
+        <v>1086.64142</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1719.19481</v>
+        <v>2085.26535</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5228.89301</v>
+        <v>6071.1962</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>7286.77068</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>8526.162789999998</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>6960.796</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2561,7 +2672,7 @@
         <v>385.7653</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>0</v>
+        <v>1.21999</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>0</v>
@@ -2581,104 +2692,119 @@
       <c r="M46" s="48" t="n">
         <v>143.11601</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>42.593</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3328.86708</v>
+        <v>5477.39824</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1368.90541</v>
+        <v>737.42715</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1131.61393</v>
+        <v>1501.10108</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1294.8518</v>
+        <v>3161.68194</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3908.63584</v>
+        <v>7276.3197</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4056.08059</v>
+        <v>4106.13985</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2930.77409</v>
+        <v>7144.35989</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2140.54602</v>
+        <v>5329.80282</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-759.80804</v>
+        <v>-2310.66036</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-2799.28892</v>
+        <v>-12933.67653</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>20449.22696</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>18614.489</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2572.516</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>266.72225</v>
+        <v>159.52022</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>177.53619</v>
+        <v>242.195</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>474.29611</v>
+        <v>682.92966</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>479.67812</v>
+        <v>491.01277</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>664.6695</v>
+        <v>879.14996</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1113.79481</v>
+        <v>1398.87786</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1715.52637</v>
+        <v>2201.88959</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1522.59223</v>
+        <v>1580.38247</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1201.42806</v>
+        <v>1404.89758</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3199.13926</v>
+        <v>3223.35326</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2410.00503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3658.57636</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>8116.546</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0</v>
+        <v>10.69195</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>37.46867</v>
+        <v>47.96644000000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>0</v>
+        <v>0.244</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>0</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>114.65729</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>7.755</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>266.72225</v>
+        <v>159.52022</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>177.53619</v>
+        <v>231.50305</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>474.29611</v>
+        <v>682.92966</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>442.20945</v>
+        <v>443.04633</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>664.6695</v>
+        <v>878.9059599999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1113.79481</v>
+        <v>1398.87786</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1715.52637</v>
+        <v>2201.88959</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1522.59223</v>
+        <v>1580.38247</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1201.42806</v>
+        <v>1404.89758</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3108.2317</v>
+        <v>3132.4457</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2295.34774</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3543.91907</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>8108.791</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>271.10322</v>
+        <v>145.79267</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>230.20642</v>
+        <v>230.97227</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2351.7331</v>
+        <v>1776.66922</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>623.99211</v>
+        <v>768.62209</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>665.16059</v>
+        <v>849.2465699999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1672.79332</v>
+        <v>2336.73145</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>488.51954</v>
+        <v>1030.63397</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2023.53114</v>
+        <v>3250.92044</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>787.5639100000001</v>
+        <v>1126.4292</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4754.19996</v>
+        <v>4878.89608</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3121.4908</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3335.41231</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1822.836</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,26 +2956,31 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>46.05507</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>0</v>
+        <v>0.24537</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>71.45828999999999</v>
+        <v>30.62975</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>12.31513</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>37.20016</v>
+        <v>5.017060000000001</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>0</v>
@@ -2843,175 +2989,198 @@
         <v>0.40101</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>0.3458</v>
+        <v>0</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>0.58229</v>
+        <v>0.5641</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>22.35736</v>
+        <v>29.75496</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1232.23374</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1232.94656</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1.751</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>225.04815</v>
+        <v>99.7376</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>230.20642</v>
+        <v>230.7269</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2280.27481</v>
+        <v>1746.03947</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>611.67698</v>
+        <v>756.30696</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>627.9604300000001</v>
+        <v>844.22951</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1672.79332</v>
+        <v>2336.73145</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>488.11853</v>
+        <v>1030.23296</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2023.18534</v>
+        <v>3250.92044</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>786.98162</v>
+        <v>1125.8651</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>4731.8426</v>
+        <v>4849.14112</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1889.25706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2102.46575</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1821.085</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3324.48611</v>
+        <v>5491.12579</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1316.23518</v>
+        <v>748.6498800000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-745.8230600000001</v>
+        <v>407.36152</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1150.53781</v>
+        <v>2884.07262</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3908.14475</v>
+        <v>7306.22309</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3497.08208</v>
+        <v>3168.28626</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4157.78092</v>
+        <v>8315.61551</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1639.60711</v>
+        <v>3659.26485</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-345.94389</v>
+        <v>-2032.19198</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-4354.34962</v>
+        <v>-14589.21935</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>19737.74119</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>18937.65305</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>8866.226000000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>669.9771800000001</v>
+        <v>861.7798399999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>208.08994</v>
+        <v>451.20302</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>496.25834</v>
+        <v>702.33808</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>567.61059</v>
+        <v>892.1915</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1167.96252</v>
+        <v>1527.90565</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>804.60992</v>
+        <v>960.42264</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>926.39852</v>
+        <v>1161.76122</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>882.75614</v>
+        <v>1202.16266</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1322.69151</v>
+        <v>1288.17645</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2248.9092</v>
+        <v>1878.63948</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3905.45358</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3668.60817</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2203.664</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2654.50893</v>
+        <v>4629.34595</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1108.14524</v>
+        <v>297.44686</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-1242.0814</v>
+        <v>-294.97656</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>582.9272199999999</v>
+        <v>1991.88112</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2740.18223</v>
+        <v>5778.317440000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2692.47216</v>
+        <v>2207.86362</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3231.3824</v>
+        <v>7153.85429</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>756.85097</v>
+        <v>2457.10219</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-1668.6354</v>
+        <v>-3320.36843</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-6603.25882</v>
+        <v>-16467.85883</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>15832.28761</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>15269.04488</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6662.562</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,17 +3194,20 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>17</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E59" s="35" t="n">
         <v>25</v>
@@ -3044,28 +3216,31 @@
         <v>32</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>41</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>44</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>43</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>45</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>44</v>
-      </c>
       <c r="J59" s="35" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>46</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>